--- a/New_Stemming.xlsx
+++ b/New_Stemming.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\PycharmProjects\Flask-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="604">
   <si>
     <t>نصايب</t>
   </si>
@@ -1824,6 +1824,18 @@
   </si>
   <si>
     <t>التبديل</t>
+  </si>
+  <si>
+    <t>نحل</t>
+  </si>
+  <si>
+    <t>18'</t>
+  </si>
+  <si>
+    <t>19'</t>
+  </si>
+  <si>
+    <t>20'</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1999,6 +2011,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2283,8 +2298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6290,7 +6305,9 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A100" s="3"/>
+      <c r="A100" s="3" t="s">
+        <v>600</v>
+      </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -6318,7 +6335,9 @@
       <c r="Z100" s="3"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A101" s="3"/>
+      <c r="A101" s="20" t="s">
+        <v>601</v>
+      </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -6346,7 +6365,9 @@
       <c r="Z101" s="3"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A102" s="3"/>
+      <c r="A102" s="20" t="s">
+        <v>602</v>
+      </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -6374,7 +6395,9 @@
       <c r="Z102" s="3"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A103" s="3"/>
+      <c r="A103" s="20" t="s">
+        <v>603</v>
+      </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -6402,7 +6425,9 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A104" s="3"/>
+      <c r="A104" s="3">
+        <v>21</v>
+      </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -6430,7 +6455,9 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A105" s="3"/>
+      <c r="A105" s="3">
+        <v>22</v>
+      </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -6458,7 +6485,9 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A106" s="3"/>
+      <c r="A106" s="3">
+        <v>23</v>
+      </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -6486,7 +6515,9 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A107" s="3"/>
+      <c r="A107" s="3">
+        <v>24</v>
+      </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -6514,7 +6545,9 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A108" s="3"/>
+      <c r="A108" s="3">
+        <v>25</v>
+      </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -6542,7 +6575,9 @@
       <c r="Z108" s="3"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A109" s="3"/>
+      <c r="A109" s="3">
+        <v>26</v>
+      </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -6570,7 +6605,9 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A110" s="3"/>
+      <c r="A110" s="3">
+        <v>27</v>
+      </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -6598,7 +6635,9 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A111" s="3"/>
+      <c r="A111" s="3">
+        <v>28</v>
+      </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -6626,7 +6665,9 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A112" s="3"/>
+      <c r="A112" s="3">
+        <v>29</v>
+      </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -6654,7 +6695,9 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A113" s="3"/>
+      <c r="A113" s="3">
+        <v>30</v>
+      </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -6682,7 +6725,9 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A114" s="3"/>
+      <c r="A114" s="3">
+        <v>31</v>
+      </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -6710,7 +6755,9 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A115" s="3"/>
+      <c r="A115" s="3">
+        <v>32</v>
+      </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -6738,7 +6785,9 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A116" s="3"/>
+      <c r="A116" s="3">
+        <v>33</v>
+      </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -6766,7 +6815,9 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A117" s="3"/>
+      <c r="A117" s="3">
+        <v>34</v>
+      </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -6794,7 +6845,9 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A118" s="3"/>
+      <c r="A118" s="3">
+        <v>35</v>
+      </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -6822,7 +6875,9 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A119" s="3"/>
+      <c r="A119" s="3">
+        <v>36</v>
+      </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -6850,7 +6905,9 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A120" s="3"/>
+      <c r="A120" s="3">
+        <v>37</v>
+      </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -6878,7 +6935,9 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A121" s="3"/>
+      <c r="A121" s="3">
+        <v>38</v>
+      </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -6906,7 +6965,9 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A122" s="3"/>
+      <c r="A122" s="3">
+        <v>39</v>
+      </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -6934,7 +6995,9 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A123" s="3"/>
+      <c r="A123" s="3">
+        <v>40</v>
+      </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -6962,7 +7025,9 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A124" s="3"/>
+      <c r="A124" s="3">
+        <v>41</v>
+      </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -6990,7 +7055,9 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A125" s="3"/>
+      <c r="A125" s="3">
+        <v>42</v>
+      </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -7018,7 +7085,9 @@
       <c r="Z125" s="3"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A126" s="3"/>
+      <c r="A126" s="3">
+        <v>43</v>
+      </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -7046,7 +7115,9 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A127" s="3"/>
+      <c r="A127" s="3">
+        <v>44</v>
+      </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -7074,7 +7145,9 @@
       <c r="Z127" s="3"/>
     </row>
     <row r="128" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A128" s="3"/>
+      <c r="A128" s="3">
+        <v>45</v>
+      </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -7102,7 +7175,9 @@
       <c r="Z128" s="3"/>
     </row>
     <row r="129" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A129" s="3"/>
+      <c r="A129" s="3">
+        <v>46</v>
+      </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -7130,7 +7205,9 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A130" s="3"/>
+      <c r="A130" s="3">
+        <v>47</v>
+      </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -7158,7 +7235,9 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A131" s="3"/>
+      <c r="A131" s="3">
+        <v>48</v>
+      </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -7186,7 +7265,9 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A132" s="3"/>
+      <c r="A132" s="3">
+        <v>49</v>
+      </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -7214,7 +7295,9 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A133" s="3"/>
+      <c r="A133" s="3">
+        <v>50</v>
+      </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -7242,7 +7325,9 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A134" s="3"/>
+      <c r="A134" s="3">
+        <v>51</v>
+      </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -7270,7 +7355,9 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A135" s="3"/>
+      <c r="A135" s="3">
+        <v>52</v>
+      </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -7298,7 +7385,9 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A136" s="3"/>
+      <c r="A136" s="3">
+        <v>53</v>
+      </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -7326,7 +7415,9 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A137" s="3"/>
+      <c r="A137" s="3">
+        <v>54</v>
+      </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -7354,7 +7445,9 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A138" s="3"/>
+      <c r="A138" s="3">
+        <v>55</v>
+      </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -7382,7 +7475,9 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A139" s="3"/>
+      <c r="A139" s="3">
+        <v>56</v>
+      </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -7410,7 +7505,9 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A140" s="3"/>
+      <c r="A140" s="3">
+        <v>57</v>
+      </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -7438,7 +7535,9 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A141" s="3"/>
+      <c r="A141" s="3">
+        <v>58</v>
+      </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -7466,7 +7565,9 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A142" s="3"/>
+      <c r="A142" s="3">
+        <v>59</v>
+      </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -7494,7 +7595,9 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A143" s="3"/>
+      <c r="A143" s="3">
+        <v>60</v>
+      </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -7522,7 +7625,9 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A144" s="3"/>
+      <c r="A144" s="3">
+        <v>61</v>
+      </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -7550,7 +7655,9 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A145" s="3"/>
+      <c r="A145" s="3">
+        <v>62</v>
+      </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -7578,7 +7685,9 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A146" s="3"/>
+      <c r="A146" s="3">
+        <v>63</v>
+      </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -7606,7 +7715,9 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A147" s="3"/>
+      <c r="A147" s="3">
+        <v>64</v>
+      </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -7634,7 +7745,9 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A148" s="3"/>
+      <c r="A148" s="3">
+        <v>65</v>
+      </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -7662,7 +7775,9 @@
       <c r="Z148" s="3"/>
     </row>
     <row r="149" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A149" s="3"/>
+      <c r="A149" s="3">
+        <v>66</v>
+      </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -7690,7 +7805,9 @@
       <c r="Z149" s="3"/>
     </row>
     <row r="150" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A150" s="3"/>
+      <c r="A150" s="3">
+        <v>67</v>
+      </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -7718,7 +7835,9 @@
       <c r="Z150" s="3"/>
     </row>
     <row r="151" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A151" s="3"/>
+      <c r="A151" s="3">
+        <v>68</v>
+      </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -7746,7 +7865,9 @@
       <c r="Z151" s="3"/>
     </row>
     <row r="152" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A152" s="3"/>
+      <c r="A152" s="3">
+        <v>69</v>
+      </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -7774,7 +7895,9 @@
       <c r="Z152" s="3"/>
     </row>
     <row r="153" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A153" s="3"/>
+      <c r="A153" s="3">
+        <v>70</v>
+      </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -7802,7 +7925,9 @@
       <c r="Z153" s="3"/>
     </row>
     <row r="154" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A154" s="3"/>
+      <c r="A154" s="3">
+        <v>71</v>
+      </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -7830,7 +7955,9 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A155" s="3"/>
+      <c r="A155" s="3">
+        <v>72</v>
+      </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -7858,7 +7985,9 @@
       <c r="Z155" s="3"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A156" s="3"/>
+      <c r="A156" s="3">
+        <v>73</v>
+      </c>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -7886,7 +8015,9 @@
       <c r="Z156" s="3"/>
     </row>
     <row r="157" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A157" s="3"/>
+      <c r="A157" s="3">
+        <v>74</v>
+      </c>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -7914,7 +8045,9 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A158" s="3"/>
+      <c r="A158" s="3">
+        <v>75</v>
+      </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -7942,7 +8075,9 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A159" s="3"/>
+      <c r="A159" s="3">
+        <v>76</v>
+      </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -7970,7 +8105,9 @@
       <c r="Z159" s="3"/>
     </row>
     <row r="160" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A160" s="3"/>
+      <c r="A160" s="3">
+        <v>77</v>
+      </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>

--- a/New_Stemming.xlsx
+++ b/New_Stemming.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="603">
   <si>
     <t>نصايب</t>
   </si>
@@ -1829,13 +1829,10 @@
     <t>نحل</t>
   </si>
   <si>
-    <t>18'</t>
-  </si>
-  <si>
-    <t>19'</t>
-  </si>
-  <si>
-    <t>20'</t>
+    <t>اجونس</t>
+  </si>
+  <si>
+    <t>أجونس</t>
   </si>
 </sst>
 </file>
@@ -2298,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6338,7 +6335,9 @@
       <c r="A101" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="B101" s="3"/>
+      <c r="B101" s="3" t="s">
+        <v>602</v>
+      </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -6365,11 +6364,15 @@
       <c r="Z101" s="3"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A102" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="A102" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>345</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -6392,12 +6395,9 @@
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
-      <c r="Z102" s="3"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A103" s="20" t="s">
-        <v>603</v>
-      </c>
+      <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -6422,12 +6422,9 @@
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
-      <c r="Z103" s="3"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A104" s="3">
-        <v>21</v>
-      </c>
+      <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -6452,12 +6449,9 @@
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
-      <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A105" s="3">
-        <v>22</v>
-      </c>
+      <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -6482,12 +6476,9 @@
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
-      <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A106" s="3">
-        <v>23</v>
-      </c>
+      <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -6512,12 +6503,9 @@
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
-      <c r="Z106" s="3"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A107" s="3">
-        <v>24</v>
-      </c>
+      <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -6542,12 +6530,9 @@
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
-      <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A108" s="3">
-        <v>25</v>
-      </c>
+      <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -6572,12 +6557,9 @@
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
-      <c r="Z108" s="3"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A109" s="3">
-        <v>26</v>
-      </c>
+      <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -6602,12 +6584,9 @@
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
-      <c r="Z109" s="3"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A110" s="3">
-        <v>27</v>
-      </c>
+      <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -6632,12 +6611,9 @@
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
-      <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A111" s="3">
-        <v>28</v>
-      </c>
+      <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -6662,12 +6638,9 @@
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
-      <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A112" s="3">
-        <v>29</v>
-      </c>
+      <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -6692,12 +6665,9 @@
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
-      <c r="Z112" s="3"/>
-    </row>
-    <row r="113" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A113" s="3">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="113" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -6722,12 +6692,9 @@
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
-      <c r="Z113" s="3"/>
-    </row>
-    <row r="114" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A114" s="3">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="114" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -6752,12 +6719,9 @@
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
-      <c r="Z114" s="3"/>
-    </row>
-    <row r="115" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A115" s="3">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="115" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -6782,12 +6746,9 @@
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
-      <c r="Z115" s="3"/>
-    </row>
-    <row r="116" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A116" s="3">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="116" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -6812,12 +6773,9 @@
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
-      <c r="Z116" s="3"/>
-    </row>
-    <row r="117" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A117" s="3">
-        <v>34</v>
-      </c>
+    </row>
+    <row r="117" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -6842,12 +6800,9 @@
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
-      <c r="Z117" s="3"/>
-    </row>
-    <row r="118" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A118" s="3">
-        <v>35</v>
-      </c>
+    </row>
+    <row r="118" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -6872,12 +6827,9 @@
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
-      <c r="Z118" s="3"/>
-    </row>
-    <row r="119" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A119" s="3">
-        <v>36</v>
-      </c>
+    </row>
+    <row r="119" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -6902,12 +6854,9 @@
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
-      <c r="Z119" s="3"/>
-    </row>
-    <row r="120" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A120" s="3">
-        <v>37</v>
-      </c>
+    </row>
+    <row r="120" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -6932,12 +6881,9 @@
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
-      <c r="Z120" s="3"/>
-    </row>
-    <row r="121" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A121" s="3">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="121" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -6962,12 +6908,9 @@
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
-      <c r="Z121" s="3"/>
-    </row>
-    <row r="122" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A122" s="3">
-        <v>39</v>
-      </c>
+    </row>
+    <row r="122" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -6992,12 +6935,9 @@
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
-      <c r="Z122" s="3"/>
-    </row>
-    <row r="123" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A123" s="3">
-        <v>40</v>
-      </c>
+    </row>
+    <row r="123" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -7022,12 +6962,9 @@
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
-      <c r="Z123" s="3"/>
-    </row>
-    <row r="124" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A124" s="3">
-        <v>41</v>
-      </c>
+    </row>
+    <row r="124" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -7052,12 +6989,9 @@
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
-      <c r="Z124" s="3"/>
-    </row>
-    <row r="125" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A125" s="3">
-        <v>42</v>
-      </c>
+    </row>
+    <row r="125" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -7082,12 +7016,9 @@
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
-      <c r="Z125" s="3"/>
-    </row>
-    <row r="126" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A126" s="3">
-        <v>43</v>
-      </c>
+    </row>
+    <row r="126" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -7112,12 +7043,9 @@
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
-      <c r="Z126" s="3"/>
-    </row>
-    <row r="127" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A127" s="3">
-        <v>44</v>
-      </c>
+    </row>
+    <row r="127" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -7142,12 +7070,9 @@
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
-      <c r="Z127" s="3"/>
-    </row>
-    <row r="128" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A128" s="3">
-        <v>45</v>
-      </c>
+    </row>
+    <row r="128" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -7172,12 +7097,9 @@
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
-      <c r="Z128" s="3"/>
-    </row>
-    <row r="129" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A129" s="3">
-        <v>46</v>
-      </c>
+    </row>
+    <row r="129" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -7202,12 +7124,9 @@
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
-      <c r="Z129" s="3"/>
-    </row>
-    <row r="130" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A130" s="3">
-        <v>47</v>
-      </c>
+    </row>
+    <row r="130" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -7232,12 +7151,9 @@
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
-      <c r="Z130" s="3"/>
-    </row>
-    <row r="131" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A131" s="3">
-        <v>48</v>
-      </c>
+    </row>
+    <row r="131" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -7262,12 +7178,9 @@
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
-      <c r="Z131" s="3"/>
-    </row>
-    <row r="132" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A132" s="3">
-        <v>49</v>
-      </c>
+    </row>
+    <row r="132" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -7292,12 +7205,9 @@
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
-      <c r="Z132" s="3"/>
-    </row>
-    <row r="133" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A133" s="3">
-        <v>50</v>
-      </c>
+    </row>
+    <row r="133" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -7322,12 +7232,9 @@
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
-      <c r="Z133" s="3"/>
-    </row>
-    <row r="134" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A134" s="3">
-        <v>51</v>
-      </c>
+    </row>
+    <row r="134" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -7352,12 +7259,9 @@
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
-      <c r="Z134" s="3"/>
-    </row>
-    <row r="135" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A135" s="3">
-        <v>52</v>
-      </c>
+    </row>
+    <row r="135" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -7382,12 +7286,9 @@
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
-      <c r="Z135" s="3"/>
-    </row>
-    <row r="136" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A136" s="3">
-        <v>53</v>
-      </c>
+    </row>
+    <row r="136" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -7412,12 +7313,9 @@
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
-      <c r="Z136" s="3"/>
-    </row>
-    <row r="137" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A137" s="3">
-        <v>54</v>
-      </c>
+    </row>
+    <row r="137" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -7442,12 +7340,9 @@
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
-      <c r="Z137" s="3"/>
-    </row>
-    <row r="138" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A138" s="3">
-        <v>55</v>
-      </c>
+    </row>
+    <row r="138" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -7472,12 +7367,9 @@
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
-      <c r="Z138" s="3"/>
-    </row>
-    <row r="139" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A139" s="3">
-        <v>56</v>
-      </c>
+    </row>
+    <row r="139" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -7502,12 +7394,9 @@
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
-      <c r="Z139" s="3"/>
-    </row>
-    <row r="140" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A140" s="3">
-        <v>57</v>
-      </c>
+    </row>
+    <row r="140" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -7532,12 +7421,9 @@
       <c r="W140" s="3"/>
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
-      <c r="Z140" s="3"/>
-    </row>
-    <row r="141" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A141" s="3">
-        <v>58</v>
-      </c>
+    </row>
+    <row r="141" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -7562,12 +7448,9 @@
       <c r="W141" s="3"/>
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
-      <c r="Z141" s="3"/>
-    </row>
-    <row r="142" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A142" s="3">
-        <v>59</v>
-      </c>
+    </row>
+    <row r="142" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -7592,12 +7475,9 @@
       <c r="W142" s="3"/>
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
-      <c r="Z142" s="3"/>
-    </row>
-    <row r="143" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A143" s="3">
-        <v>60</v>
-      </c>
+    </row>
+    <row r="143" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -7622,12 +7502,9 @@
       <c r="W143" s="3"/>
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
-      <c r="Z143" s="3"/>
-    </row>
-    <row r="144" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A144" s="3">
-        <v>61</v>
-      </c>
+    </row>
+    <row r="144" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -7652,12 +7529,9 @@
       <c r="W144" s="3"/>
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
-      <c r="Z144" s="3"/>
-    </row>
-    <row r="145" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A145" s="3">
-        <v>62</v>
-      </c>
+    </row>
+    <row r="145" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -7682,12 +7556,9 @@
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
-      <c r="Z145" s="3"/>
-    </row>
-    <row r="146" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A146" s="3">
-        <v>63</v>
-      </c>
+    </row>
+    <row r="146" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -7712,12 +7583,9 @@
       <c r="W146" s="3"/>
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
-      <c r="Z146" s="3"/>
-    </row>
-    <row r="147" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A147" s="3">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="147" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -7742,12 +7610,9 @@
       <c r="W147" s="3"/>
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
-      <c r="Z147" s="3"/>
-    </row>
-    <row r="148" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A148" s="3">
-        <v>65</v>
-      </c>
+    </row>
+    <row r="148" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -7772,12 +7637,9 @@
       <c r="W148" s="3"/>
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
-      <c r="Z148" s="3"/>
-    </row>
-    <row r="149" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A149" s="3">
-        <v>66</v>
-      </c>
+    </row>
+    <row r="149" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -7802,12 +7664,9 @@
       <c r="W149" s="3"/>
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
-      <c r="Z149" s="3"/>
-    </row>
-    <row r="150" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A150" s="3">
-        <v>67</v>
-      </c>
+    </row>
+    <row r="150" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -7832,12 +7691,9 @@
       <c r="W150" s="3"/>
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
-      <c r="Z150" s="3"/>
-    </row>
-    <row r="151" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A151" s="3">
-        <v>68</v>
-      </c>
+    </row>
+    <row r="151" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -7862,12 +7718,9 @@
       <c r="W151" s="3"/>
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
-      <c r="Z151" s="3"/>
-    </row>
-    <row r="152" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A152" s="3">
-        <v>69</v>
-      </c>
+    </row>
+    <row r="152" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -7892,12 +7745,9 @@
       <c r="W152" s="3"/>
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
-      <c r="Z152" s="3"/>
-    </row>
-    <row r="153" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A153" s="3">
-        <v>70</v>
-      </c>
+    </row>
+    <row r="153" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -7922,12 +7772,9 @@
       <c r="W153" s="3"/>
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
-      <c r="Z153" s="3"/>
-    </row>
-    <row r="154" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A154" s="3">
-        <v>71</v>
-      </c>
+    </row>
+    <row r="154" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -7952,12 +7799,9 @@
       <c r="W154" s="3"/>
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
-      <c r="Z154" s="3"/>
-    </row>
-    <row r="155" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A155" s="3">
-        <v>72</v>
-      </c>
+    </row>
+    <row r="155" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -7982,12 +7826,9 @@
       <c r="W155" s="3"/>
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
-      <c r="Z155" s="3"/>
-    </row>
-    <row r="156" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A156" s="3">
-        <v>73</v>
-      </c>
+    </row>
+    <row r="156" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -8012,12 +7853,9 @@
       <c r="W156" s="3"/>
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
-      <c r="Z156" s="3"/>
-    </row>
-    <row r="157" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A157" s="3">
-        <v>74</v>
-      </c>
+    </row>
+    <row r="157" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -8042,12 +7880,9 @@
       <c r="W157" s="3"/>
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
-      <c r="Z157" s="3"/>
-    </row>
-    <row r="158" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A158" s="3">
-        <v>75</v>
-      </c>
+    </row>
+    <row r="158" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -8072,12 +7907,9 @@
       <c r="W158" s="3"/>
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
-      <c r="Z158" s="3"/>
-    </row>
-    <row r="159" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A159" s="3">
-        <v>76</v>
-      </c>
+    </row>
+    <row r="159" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -8102,12 +7934,9 @@
       <c r="W159" s="3"/>
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
-      <c r="Z159" s="3"/>
-    </row>
-    <row r="160" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A160" s="3">
-        <v>77</v>
-      </c>
+    </row>
+    <row r="160" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -8132,7 +7961,6 @@
       <c r="W160" s="3"/>
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
-      <c r="Z160" s="3"/>
     </row>
     <row r="161" spans="1:26" ht="15.75" thickBot="1">
       <c r="A161" s="3"/>

--- a/New_Stemming.xlsx
+++ b/New_Stemming.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="608">
   <si>
     <t>نصايب</t>
   </si>
@@ -1833,6 +1833,21 @@
   </si>
   <si>
     <t>أجونس</t>
+  </si>
+  <si>
+    <t>سكان</t>
+  </si>
+  <si>
+    <t>سكن</t>
+  </si>
+  <si>
+    <t>نسكاني</t>
+  </si>
+  <si>
+    <t>نسكان</t>
+  </si>
+  <si>
+    <t>نسكني</t>
   </si>
 </sst>
 </file>
@@ -2296,7 +2311,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6397,11 +6412,21 @@
       <c r="Y102" s="3"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+      <c r="A103" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>607</v>
+      </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>

--- a/New_Stemming.xlsx
+++ b/New_Stemming.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="616">
   <si>
     <t>نصايب</t>
   </si>
@@ -1848,6 +1848,30 @@
   </si>
   <si>
     <t>نسكني</t>
+  </si>
+  <si>
+    <t>رفضتو</t>
+  </si>
+  <si>
+    <t>رفدتو</t>
+  </si>
+  <si>
+    <t>ترفضات</t>
+  </si>
+  <si>
+    <t>ترفدات</t>
+  </si>
+  <si>
+    <t>ترفض</t>
+  </si>
+  <si>
+    <t>ترفد</t>
+  </si>
+  <si>
+    <t>رفد</t>
+  </si>
+  <si>
+    <t>رفض</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2335,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6449,14 +6473,30 @@
       <c r="Y103" s="3"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
+      <c r="A104" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>615</v>
+      </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>

--- a/New_Stemming.xlsx
+++ b/New_Stemming.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="619">
   <si>
     <t>نصايب</t>
   </si>
@@ -1872,6 +1872,15 @@
   </si>
   <si>
     <t>رفض</t>
+  </si>
+  <si>
+    <t>المستندات</t>
+  </si>
+  <si>
+    <t>لمستندات</t>
+  </si>
+  <si>
+    <t>مستندات</t>
   </si>
 </sst>
 </file>
@@ -2334,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6516,9 +6525,15 @@
       <c r="Y104" s="3"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="A105" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>618</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>

--- a/New_Stemming.xlsx
+++ b/New_Stemming.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="621">
   <si>
     <t>نصايب</t>
   </si>
@@ -1881,6 +1881,12 @@
   </si>
   <si>
     <t>مستندات</t>
+  </si>
+  <si>
+    <t>تودراتلي</t>
+  </si>
+  <si>
+    <t>توضراتلي</t>
   </si>
 </sst>
 </file>
@@ -2343,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2503,8 +2509,12 @@
       <c r="I4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>

--- a/New_Stemming.xlsx
+++ b/New_Stemming.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="622">
   <si>
     <t>نصايب</t>
   </si>
@@ -1887,6 +1887,9 @@
   </si>
   <si>
     <t>توضراتلي</t>
+  </si>
+  <si>
+    <t>سلام</t>
   </si>
 </sst>
 </file>
@@ -2349,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6568,7 +6571,9 @@
       <c r="Y105" s="3"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A106" s="3"/>
+      <c r="A106" s="3" t="s">
+        <v>621</v>
+      </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>

--- a/New_Stemming.xlsx
+++ b/New_Stemming.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="624">
   <si>
     <t>نصايب</t>
   </si>
@@ -1890,6 +1890,12 @@
   </si>
   <si>
     <t>سلام</t>
+  </si>
+  <si>
+    <t>نفيرسي</t>
+  </si>
+  <si>
+    <t>فيرسي</t>
   </si>
 </sst>
 </file>
@@ -2352,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6269,7 +6275,6 @@
         <v>590</v>
       </c>
       <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -6600,8 +6605,12 @@
       <c r="Y106" s="3"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="A107" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>623</v>
+      </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>

--- a/New_Stemming.xlsx
+++ b/New_Stemming.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="625">
   <si>
     <t>نصايب</t>
   </si>
@@ -1896,6 +1896,9 @@
   </si>
   <si>
     <t>فيرسي</t>
+  </si>
+  <si>
+    <t>هي</t>
   </si>
 </sst>
 </file>
@@ -2359,7 +2362,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6579,7 +6582,9 @@
       <c r="A106" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B106" s="3"/>
+      <c r="B106" s="3" t="s">
+        <v>624</v>
+      </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
